--- a/biology/Botanique/Palais_impérial_Sentō/Palais_impérial_Sentō.xlsx
+++ b/biology/Botanique/Palais_impérial_Sentō/Palais_impérial_Sentō.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Palais_imp%C3%A9rial_Sent%C5%8D</t>
+          <t>Palais_impérial_Sentō</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le palais impérial Sentō (仙洞御所, Sentō-gosho?), d'une superficie de 89 000 m2, est un grand jardin au palais impérial de Kyoto au Japon, ancien palais pour empereurs retirés (dajō tennō), à présent administré par l'Agence impériale. 
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Palais_imp%C3%A9rial_Sent%C5%8D</t>
+          <t>Palais_impérial_Sentō</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Jardin</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La principale caractéristique du jardin est un grand étang avec des îles et des passerelles dont les parties nord et sud ont été reliées par un petit canal en 1747. L'étang nord a été agrandi et remanié de 1684 à 1688. L'étang sud est remarquable pour son vaste « rivage océanique » de galets et de cerisiers, une bordure de pierres naturelles et taillées et un discret remblai séparé de pierres carrées. Les étangs contiennent différentes îles très pittoresques et six ponts de divers styles, dont un avec un impressionnant treillis de glycines (construit en 1895).
 Deux maisons de thé complètent le jardin : le Seika-tei, à l'extrémité sud de l'étang sud et le Yushin-tei sur le côté ouest de l'étang nord.
